--- a/results/mp/logistic/corona/confidence/210/0.15/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/210/0.15/avg_0.003_scores.xlsx
@@ -49,9 +49,6 @@
     <t>crude</t>
   </si>
   <si>
-    <t>war</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
@@ -64,27 +61,27 @@
     <t>no</t>
   </si>
   <si>
-    <t>stop</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
     <t>free</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
+    <t>support</t>
+  </si>
+  <si>
     <t>positive</t>
   </si>
   <si>
@@ -94,72 +91,72 @@
     <t>hand</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
     <t>won</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>heroes</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>friends</t>
+    <t>better</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>like</t>
   </si>
   <si>
     <t>join</t>
   </si>
   <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
     <t>relief</t>
   </si>
   <si>
-    <t>better</t>
+    <t>please</t>
+  </si>
+  <si>
+    <t>help</t>
   </si>
   <si>
     <t>gt</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
     <t>well</t>
   </si>
   <si>
+    <t>share</t>
+  </si>
+  <si>
     <t>hope</t>
   </si>
   <si>
-    <t>share</t>
-  </si>
-  <si>
     <t>care</t>
   </si>
   <si>
@@ -170,6 +167,9 @@
   </si>
   <si>
     <t>increase</t>
+  </si>
+  <si>
+    <t>you</t>
   </si>
 </sst>
 </file>
@@ -527,7 +527,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q36"/>
+  <dimension ref="A1:Q38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -535,10 +535,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -596,13 +596,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7397260273972602</v>
+        <v>0.7294520547945206</v>
       </c>
       <c r="C3">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D3">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -614,19 +614,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K3">
-        <v>0.9130434782608695</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L3">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M3">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -638,7 +638,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -646,13 +646,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.6896551724137931</v>
+        <v>0.6551724137931034</v>
       </c>
       <c r="C4">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -664,19 +664,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K4">
-        <v>0.8983050847457628</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L4">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="M4">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -688,7 +688,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -696,13 +696,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.5882352941176471</v>
+        <v>0.6176470588235294</v>
       </c>
       <c r="C5">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D5">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -714,19 +714,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K5">
-        <v>0.8846153846153846</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L5">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="M5">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -738,7 +738,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -746,13 +746,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.5263157894736842</v>
+        <v>0.4074074074074074</v>
       </c>
       <c r="C6">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -764,19 +764,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>18</v>
+        <v>112</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K6">
-        <v>0.8833333333333333</v>
+        <v>0.9083333333333333</v>
       </c>
       <c r="L6">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="M6">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -796,13 +796,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.417989417989418</v>
+        <v>0.3352713178294573</v>
       </c>
       <c r="C7">
-        <v>79</v>
+        <v>173</v>
       </c>
       <c r="D7">
-        <v>79</v>
+        <v>173</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -814,19 +814,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>110</v>
+        <v>343</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K7">
-        <v>0.8571428571428571</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L7">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M7">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -846,13 +846,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.3352713178294573</v>
+        <v>0.2013422818791946</v>
       </c>
       <c r="C8">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="D8">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -864,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>343</v>
+        <v>119</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K8">
-        <v>0.8448275862068966</v>
+        <v>0.8113207547169812</v>
       </c>
       <c r="L8">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="M8">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -888,7 +888,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -896,13 +896,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.2080536912751678</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C9">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D9">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -914,119 +914,71 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>118</v>
+        <v>320</v>
       </c>
       <c r="J9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9">
+        <v>0.8103448275862069</v>
+      </c>
+      <c r="L9">
+        <v>47</v>
+      </c>
+      <c r="M9">
+        <v>47</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="J10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10">
+        <v>0.8048780487804879</v>
+      </c>
+      <c r="L10">
+        <v>66</v>
+      </c>
+      <c r="M10">
+        <v>66</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="J11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K9">
-        <v>0.8292682926829268</v>
-      </c>
-      <c r="L9">
-        <v>68</v>
-      </c>
-      <c r="M9">
-        <v>68</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10">
-        <v>0.1333333333333333</v>
-      </c>
-      <c r="C10">
-        <v>48</v>
-      </c>
-      <c r="D10">
-        <v>48</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>312</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K10">
-        <v>0.8093994778067886</v>
-      </c>
-      <c r="L10">
-        <v>310</v>
-      </c>
-      <c r="M10">
-        <v>310</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11">
-        <v>0.07539682539682539</v>
-      </c>
-      <c r="C11">
-        <v>19</v>
-      </c>
-      <c r="D11">
-        <v>19</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>233</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="K11">
-        <v>0.8055555555555556</v>
+        <v>0.793733681462141</v>
       </c>
       <c r="L11">
-        <v>29</v>
+        <v>304</v>
       </c>
       <c r="M11">
-        <v>29</v>
+        <v>304</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1038,21 +990,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>7</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K12">
-        <v>0.7887323943661971</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="L12">
-        <v>112</v>
+        <v>26</v>
       </c>
       <c r="M12">
-        <v>112</v>
+        <v>26</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1064,21 +1016,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K13">
-        <v>0.7830188679245284</v>
+        <v>0.765625</v>
       </c>
       <c r="L13">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="M13">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1090,21 +1042,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K14">
-        <v>0.7692307692307693</v>
+        <v>0.7605633802816901</v>
       </c>
       <c r="L14">
-        <v>30</v>
+        <v>108</v>
       </c>
       <c r="M14">
-        <v>30</v>
+        <v>108</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1116,21 +1068,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>9</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K15">
-        <v>0.765625</v>
+        <v>0.75</v>
       </c>
       <c r="L15">
-        <v>98</v>
+        <v>27</v>
       </c>
       <c r="M15">
-        <v>98</v>
+        <v>27</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1142,21 +1094,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K16">
         <v>0.75</v>
       </c>
       <c r="L16">
-        <v>120</v>
+        <v>21</v>
       </c>
       <c r="M16">
-        <v>120</v>
+        <v>21</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1168,21 +1120,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>40</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K17">
-        <v>0.7291666666666666</v>
+        <v>0.74375</v>
       </c>
       <c r="L17">
-        <v>35</v>
+        <v>119</v>
       </c>
       <c r="M17">
-        <v>35</v>
+        <v>119</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1194,21 +1146,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K18">
-        <v>0.7272727272727273</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L18">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M18">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1220,21 +1172,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K19">
-        <v>0.723404255319149</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L19">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="M19">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1246,21 +1198,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K20">
-        <v>0.6785714285714286</v>
+        <v>0.717948717948718</v>
       </c>
       <c r="L20">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="M20">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1272,21 +1224,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K21">
-        <v>0.6744186046511628</v>
+        <v>0.7021276595744681</v>
       </c>
       <c r="L21">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M21">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1303,16 +1255,16 @@
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K22">
-        <v>0.6666666666666666</v>
+        <v>0.6875</v>
       </c>
       <c r="L22">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="M22">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1324,47 +1276,47 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K23">
-        <v>0.6571428571428571</v>
+        <v>0.6349206349206349</v>
       </c>
       <c r="L23">
+        <v>40</v>
+      </c>
+      <c r="M23">
+        <v>40</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
         <v>23</v>
-      </c>
-      <c r="M23">
-        <v>23</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>12</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K24">
-        <v>0.62</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="L24">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="M24">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1376,21 +1328,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K25">
-        <v>0.6031746031746031</v>
+        <v>0.611764705882353</v>
       </c>
       <c r="L25">
-        <v>38</v>
+        <v>208</v>
       </c>
       <c r="M25">
-        <v>38</v>
+        <v>208</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1402,21 +1354,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>25</v>
+        <v>132</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K26">
-        <v>0.6</v>
+        <v>0.6046511627906976</v>
       </c>
       <c r="L26">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M26">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1428,21 +1380,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K27">
-        <v>0.5852941176470589</v>
+        <v>0.58</v>
       </c>
       <c r="L27">
-        <v>199</v>
+        <v>29</v>
       </c>
       <c r="M27">
-        <v>199</v>
+        <v>29</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1454,21 +1406,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>141</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K28">
-        <v>0.5648535564853556</v>
+        <v>0.5774058577405857</v>
       </c>
       <c r="L28">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="M28">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1480,21 +1432,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K29">
-        <v>0.5559322033898305</v>
+        <v>0.5525423728813559</v>
       </c>
       <c r="L29">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M29">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1506,21 +1458,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K30">
-        <v>0.5425531914893617</v>
+        <v>0.525</v>
       </c>
       <c r="L30">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="M30">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1532,47 +1484,47 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>43</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K31">
+        <v>0.5106382978723404</v>
+      </c>
+      <c r="L31">
+        <v>48</v>
+      </c>
+      <c r="M31">
+        <v>48</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
         <v>46</v>
-      </c>
-      <c r="K31">
-        <v>0.5230769230769231</v>
-      </c>
-      <c r="L31">
-        <v>34</v>
-      </c>
-      <c r="M31">
-        <v>34</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>31</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K32">
-        <v>0.4857142857142857</v>
+        <v>0.5</v>
       </c>
       <c r="L32">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M32">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1584,21 +1536,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K33">
-        <v>0.449438202247191</v>
+        <v>0.4923076923076923</v>
       </c>
       <c r="L33">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="M33">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1610,21 +1562,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>49</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K34">
-        <v>0.3725490196078431</v>
+        <v>0.4157303370786517</v>
       </c>
       <c r="L34">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="M34">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1636,21 +1588,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>32</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K35">
-        <v>0.3013698630136986</v>
+        <v>0.3725490196078431</v>
       </c>
       <c r="L35">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="M35">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1662,33 +1614,85 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>51</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K36">
+        <v>0.2876712328767123</v>
+      </c>
+      <c r="L36">
+        <v>21</v>
+      </c>
+      <c r="M36">
+        <v>21</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37" spans="10:17">
+      <c r="J37" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K37">
+        <v>0.2564102564102564</v>
+      </c>
+      <c r="L37">
+        <v>20</v>
+      </c>
+      <c r="M37">
+        <v>20</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="10:17">
+      <c r="J38" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K36">
-        <v>0.282051282051282</v>
-      </c>
-      <c r="L36">
-        <v>22</v>
-      </c>
-      <c r="M36">
-        <v>22</v>
-      </c>
-      <c r="N36">
-        <v>1</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>56</v>
+      <c r="K38">
+        <v>0.01583333333333333</v>
+      </c>
+      <c r="L38">
+        <v>19</v>
+      </c>
+      <c r="M38">
+        <v>19</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>1181</v>
       </c>
     </row>
   </sheetData>
